--- a/projeto_relatorio_vendas/data/processed_data/Meganium_Sales_data.xlsx
+++ b/projeto_relatorio_vendas/data/processed_data/Meganium_Sales_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\records\raw\curso prompt de vendas\project base\data\processed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\OneDrive\Documentos\GitHub Repositórios\dio-bootcamp-microsoft-AI_for_Tech\projeto_relatorio_vendas\data\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF384361-7EE9-44FF-94D0-6781DB5A913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483BD5A7-6AB3-4A02-9B3D-B8D342150F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20310" yWindow="-435" windowWidth="19260" windowHeight="10245" xr2:uid="{6AE332F9-81B0-4A6E-884F-846423EA80AA}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="18000" windowHeight="9480" xr2:uid="{6AE332F9-81B0-4A6E-884F-846423EA80AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="consolidate" sheetId="1" r:id="rId1"/>
+    <sheet name="Meganium_Sales_Data_Consolidate" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consolidate!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Meganium_Sales_Data_Consolidate!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
